--- a/data/trans_dic/P55$amigo-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$amigo-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.08181551917479571</v>
+        <v>0.08181551917479574</v>
       </c>
     </row>
     <row r="5">
@@ -723,7 +723,7 @@
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="n">
-        <v>0.03381533044748476</v>
+        <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
       </c>
       <c r="M5" s="5" t="inlineStr"/>
       <c r="N5" s="5" t="n">
-        <v>0.02292142255215936</v>
+        <v>0.02174159930775744</v>
       </c>
     </row>
     <row r="6">
@@ -744,32 +744,32 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.357053114111769</v>
+        <v>0.3649016468152327</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5700025270322047</v>
+        <v>0.569231311457577</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.2110454695012252</v>
+        <v>0.2059005910420884</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3576959650123266</v>
+        <v>0.2993078714820208</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.2892671743207735</v>
+        <v>0.2934304651922978</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2336650757251749</v>
+        <v>0.2335492897678877</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3980865752099733</v>
+        <v>0.4438666316759164</v>
       </c>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
-        <v>0.191377532514103</v>
+        <v>0.1843017785469448</v>
       </c>
     </row>
     <row r="7">
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0366888567545724</v>
+        <v>0.03668885675457239</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1729821383536721</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01460593004718947</v>
+        <v>0.01481014835274835</v>
       </c>
     </row>
     <row r="9">
@@ -865,27 +865,27 @@
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.1914339050305283</v>
+        <v>0.1737484478634626</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.7613559963952696</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.6935682217923671</v>
+        <v>0.6843477357757486</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2393383839804951</v>
+        <v>0.2535499592291722</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2611741128025174</v>
+        <v>0.3076509165175927</v>
       </c>
       <c r="L9" s="5" t="inlineStr"/>
       <c r="M9" s="5" t="n">
-        <v>0.3096390879892266</v>
+        <v>0.30094126003449</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1578076063873738</v>
+        <v>0.150063145049142</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
       </c>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.01020516727403919</v>
+        <v>0.01019432618514144</v>
       </c>
     </row>
     <row r="12">
@@ -977,27 +977,27 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.4636332661774655</v>
+        <v>0.4389839660546295</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.1198769479331404</v>
+        <v>0.1120059039115431</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.2849903998383519</v>
+        <v>0.2822101404912454</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.1233104348847252</v>
+        <v>0.1494542173679183</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="n">
-        <v>0.2525712155002385</v>
+        <v>0.2429955931533872</v>
       </c>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.09714208724571691</v>
+        <v>0.08768437041122962</v>
       </c>
     </row>
     <row r="13">
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.04826778785063516</v>
+        <v>0.04826778785063517</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04991481946882946</v>
@@ -1033,7 +1033,7 @@
         <v>0.0368920079954795</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.03014962360145668</v>
+        <v>0.03014962360145667</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02313535267029376</v>
@@ -1045,7 +1045,7 @@
         <v>0.01665994827904271</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04189651915467371</v>
+        <v>0.0418965191546737</v>
       </c>
     </row>
     <row r="14">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.0176883771366685</v>
+        <v>0.01735928608512697</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0165449895725852</v>
+        <v>0.01743299181905925</v>
       </c>
     </row>
     <row r="15">
@@ -1096,36 +1096,36 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07156253137915394</v>
+        <v>0.07135020273968408</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.081455437277923</v>
+        <v>0.07990794946109131</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.1157447249000534</v>
+        <v>0.100902331076077</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2184680973576443</v>
+        <v>0.2499171773845536</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.1557823531107914</v>
+        <v>0.2019516989857724</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1011503715768085</v>
+        <v>0.1047376133211717</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07789567128057351</v>
+        <v>0.0707502439889342</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06431091083247499</v>
+        <v>0.07342389297475056</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08254771678714641</v>
+        <v>0.08620350899119367</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08213388594265814</v>
+        <v>0.08140478321338351</v>
       </c>
     </row>
     <row r="16">
@@ -1173,7 +1173,7 @@
         <v>0.02096095733399352</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.04876549655376228</v>
+        <v>0.04876549655376226</v>
       </c>
     </row>
     <row r="17">
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01240003650614233</v>
+        <v>0.01234520998518809</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02286101841835372</v>
+        <v>0.02304103975362175</v>
       </c>
       <c r="K17" s="5" t="inlineStr"/>
       <c r="L17" s="5" t="n">
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02721156247399649</v>
+        <v>0.02466374687825944</v>
       </c>
     </row>
     <row r="18">
@@ -1222,30 +1222,30 @@
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.09477489120814293</v>
+        <v>0.09985535548873331</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1509241864906292</v>
+        <v>0.1440763333644606</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.08872517925839929</v>
+        <v>0.07706495108351209</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09481429507004806</v>
+        <v>0.1122325175983123</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08660499501544408</v>
+        <v>0.08914866052133973</v>
       </c>
       <c r="K18" s="5" t="inlineStr"/>
       <c r="L18" s="5" t="n">
-        <v>0.06368089252472942</v>
+        <v>0.06125439962249556</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07537479479188662</v>
+        <v>0.08651418151191689</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08144803139422542</v>
+        <v>0.07845924828460737</v>
       </c>
     </row>
     <row r="19">
@@ -1289,7 +1289,7 @@
         <v>0.02479664819586649</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.04401861171977621</v>
+        <v>0.04401861171977622</v>
       </c>
     </row>
     <row r="20">
@@ -1306,24 +1306,24 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.005092139016968421</v>
+        <v>0.005035858923023027</v>
       </c>
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="n">
-        <v>0.007925327858978485</v>
+        <v>0.008061336857089992</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0202413231890098</v>
+        <v>0.02058958660334404</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.005059660198056249</v>
+        <v>0.005060688265333291</v>
       </c>
       <c r="L20" s="5" t="inlineStr"/>
       <c r="M20" s="5" t="n">
-        <v>0.007925327858978485</v>
+        <v>0.008061336857089992</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02236452571749241</v>
+        <v>0.0216143491410368</v>
       </c>
     </row>
     <row r="21">
@@ -1340,24 +1340,24 @@
         <v>0.7531436170395935</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05083191747808855</v>
+        <v>0.04881180783122202</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.07346091507607294</v>
+        <v>0.07367465486655735</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.09191313657300541</v>
+        <v>0.08800844954668791</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05304669962969761</v>
+        <v>0.04971891156333426</v>
       </c>
       <c r="L21" s="5" t="inlineStr"/>
       <c r="M21" s="5" t="n">
-        <v>0.07346091507607294</v>
+        <v>0.07367465486655735</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.0881012371233761</v>
+        <v>0.08929374738026992</v>
       </c>
     </row>
     <row r="22">
@@ -1381,7 +1381,7 @@
         <v>0.007329956925798094</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.04547049761282487</v>
+        <v>0.04547049761282485</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.02454964311219122</v>
@@ -1393,7 +1393,7 @@
         <v>0.0273628147770145</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.04656757161592628</v>
+        <v>0.04656757161592629</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.02082578960281061</v>
@@ -1405,7 +1405,7 @@
         <v>0.02105312121606256</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.04621360002851251</v>
+        <v>0.0462136000285125</v>
       </c>
     </row>
     <row r="23">
@@ -1419,37 +1419,37 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.007287621290187783</v>
+        <v>0.007113892233373203</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02413960556778545</v>
+        <v>0.02316739069671424</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.009226009984120122</v>
+        <v>0.009072933232356428</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.003571895526510356</v>
+        <v>0.003561076144914065</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01309768592461071</v>
+        <v>0.01333397948912839</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03131390096682678</v>
+        <v>0.03050671429064731</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.00958602821989999</v>
+        <v>0.009108090189088055</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.007386411841597888</v>
+        <v>0.007383675184132402</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.009194905346836483</v>
+        <v>0.008897650622680294</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03323351415004525</v>
+        <v>0.03196958554387202</v>
       </c>
     </row>
     <row r="24">
@@ -1460,40 +1460,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05156814449601629</v>
+        <v>0.04458187618541827</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08767028858283824</v>
+        <v>0.09237633340162808</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03425978001441873</v>
+        <v>0.03380395760645717</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07848703192350988</v>
+        <v>0.07896940474773853</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05010127700810785</v>
+        <v>0.05029425240250963</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03409872241218009</v>
+        <v>0.03116784748183536</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05928806763843885</v>
+        <v>0.06031253553369068</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.07050998644838972</v>
+        <v>0.06881643366679126</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03891674917973339</v>
+        <v>0.03986961977275038</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03996835698981894</v>
+        <v>0.04104063729194026</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.04083019696849948</v>
+        <v>0.04156877147683402</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06497542628128422</v>
+        <v>0.06417789535289059</v>
       </c>
     </row>
     <row r="25">
@@ -1781,7 +1781,7 @@
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="M6" s="6" t="inlineStr"/>
       <c r="N6" s="6" t="n">
-        <v>630</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7">
@@ -1802,32 +1802,32 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3622</v>
+        <v>3702</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4788</v>
+        <v>4782</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>2638</v>
+        <v>2574</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4781</v>
+        <v>4001</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>4336</v>
+        <v>4399</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5493</v>
+        <v>5491</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>4642</v>
+        <v>5176</v>
       </c>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
-        <v>5261</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="8">
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11">
@@ -1967,27 +1967,27 @@
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>3591</v>
+        <v>3259</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4282</v>
+        <v>4075</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>4655</v>
+        <v>4593</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>3717</v>
+        <v>3938</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>4218</v>
+        <v>4969</v>
       </c>
       <c r="L11" s="6" t="inlineStr"/>
       <c r="M11" s="6" t="n">
-        <v>5408</v>
+        <v>5256</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>5411</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="12">
@@ -2123,27 +2123,27 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>11329</v>
+        <v>10727</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>2732</v>
+        <v>2553</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>5415</v>
+        <v>5362</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>2944</v>
+        <v>3568</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="n">
-        <v>10971</v>
+        <v>10555</v>
       </c>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>4533</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="16">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>1364</v>
+        <v>1339</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1968</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="19">
@@ -2286,36 +2286,36 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5054</v>
+        <v>5039</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5522</v>
+        <v>5417</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>8928</v>
+        <v>7784</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5117</v>
+        <v>5853</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>5114</v>
+        <v>6629</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>4232</v>
+        <v>4382</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7326</v>
+        <v>6654</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>5700</v>
+        <v>6507</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>6000</v>
+        <v>6266</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>9772</v>
+        <v>9685</v>
       </c>
     </row>
     <row r="20">
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2303</v>
+        <v>2321</v>
       </c>
       <c r="K22" s="6" t="inlineStr"/>
       <c r="L22" s="6" t="n">
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3636</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="23">
@@ -2456,30 +2456,30 @@
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>4486</v>
+        <v>4726</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4963</v>
+        <v>4737</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>7414</v>
+        <v>6439</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5027</v>
+        <v>5951</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>8724</v>
+        <v>8981</v>
       </c>
       <c r="K23" s="6" t="inlineStr"/>
       <c r="L23" s="6" t="n">
-        <v>7616</v>
+        <v>7325</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>7564</v>
+        <v>8682</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>10883</v>
+        <v>10484</v>
       </c>
     </row>
     <row r="24">
@@ -2584,24 +2584,24 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3079</v>
+        <v>3131</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L26" s="6" t="inlineStr"/>
       <c r="M26" s="6" t="n">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>3451</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="27">
@@ -2618,24 +2618,24 @@
         <v>1660</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7322</v>
+        <v>7031</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>10818</v>
+        <v>10850</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>13979</v>
+        <v>13385</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7690</v>
+        <v>7207</v>
       </c>
       <c r="L27" s="6" t="inlineStr"/>
       <c r="M27" s="6" t="n">
-        <v>10818</v>
+        <v>10850</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>13593</v>
+        <v>13777</v>
       </c>
     </row>
     <row r="28">
@@ -2741,37 +2741,37 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>4014</v>
+        <v>3852</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2130</v>
+        <v>2095</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>3460</v>
+        <v>3522</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>10931</v>
+        <v>10649</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3427</v>
+        <v>3256</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>3546</v>
+        <v>3431</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>17126</v>
+        <v>16475</v>
       </c>
     </row>
     <row r="31">
@@ -2782,40 +2782,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>6527</v>
+        <v>5643</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>12815</v>
+        <v>13502</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4161</v>
+        <v>4106</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>13050</v>
+        <v>13131</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11569</v>
+        <v>11614</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>9499</v>
+        <v>8682</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>15662</v>
+        <v>15932</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>24612</v>
+        <v>24021</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>13913</v>
+        <v>14253</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>16976</v>
+        <v>17431</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>15745</v>
+        <v>16030</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>33484</v>
+        <v>33073</v>
       </c>
     </row>
     <row r="32">
